--- a/problem_005-time-analysis.xlsx
+++ b/problem_005-time-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00f4f88b8603c5b6/Documents/Andreas/Freizeit/Development/Learning/100DaysOfCoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_510B1CDB8F79A8836D3E7CD2E15CC233A0AD3B71" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9D74FBA-976B-4371-8BF5-18013307B607}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_510B1CDB8F79A8836D3E7CD2E15CC233A0AD3B71" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{67349A36-8D92-437B-A773-00CFFE3E962F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,10 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3190,6 +3194,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3208,6 +3213,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>amount of characters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3256,6 +3316,7 @@
         <c:axId val="979550095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3273,6 +3334,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3307,6 +3423,7 @@
         <c:crossAx val="1173963919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3919,10 +4036,10 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4274,7 +4391,7 @@
   <dimension ref="A1:SF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
